--- a/doors-detector/results/house2_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house2_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.828859248221286</v>
+        <v>0.8405285620557078</v>
       </c>
       <c r="F2" t="n">
         <v>1190</v>
       </c>
       <c r="G2" t="n">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="H2" t="n">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1974515574275539</v>
+        <v>0.1893633579501943</v>
       </c>
       <c r="F3" t="n">
         <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6027853727725426</v>
+        <v>0.6081586409698605</v>
       </c>
       <c r="F4" t="n">
         <v>175</v>
       </c>
       <c r="G4" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.757477357591005</v>
+        <v>0.8180514083007939</v>
       </c>
       <c r="F5" t="n">
         <v>1190</v>
       </c>
       <c r="G5" t="n">
-        <v>985</v>
+        <v>1032</v>
       </c>
       <c r="H5" t="n">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4729598942664342</v>
+        <v>0.415985063601945</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.704637719810315</v>
+        <v>0.8156340189065714</v>
       </c>
       <c r="F7" t="n">
         <v>175</v>
       </c>
       <c r="G7" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H7" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7623223704625265</v>
+        <v>0.8040592562381033</v>
       </c>
       <c r="F8" t="n">
         <v>1190</v>
       </c>
       <c r="G8" t="n">
-        <v>993</v>
+        <v>1023</v>
       </c>
       <c r="H8" t="n">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5956866976526362</v>
+        <v>0.5797316787941788</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7523189281757779</v>
+        <v>0.7992534006290022</v>
       </c>
       <c r="F10" t="n">
         <v>175</v>
       </c>
       <c r="G10" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7826700591274725</v>
+        <v>0.789968429563419</v>
       </c>
       <c r="F11" t="n">
         <v>1190</v>
       </c>
       <c r="G11" t="n">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="H11" t="n">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7050276890255341</v>
+        <v>0.8027877912793625</v>
       </c>
       <c r="F12" t="n">
         <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7651491481894237</v>
+        <v>0.8111677231162683</v>
       </c>
       <c r="F13" t="n">
         <v>175</v>
       </c>
       <c r="G13" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" t="n">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8275136456078938</v>
+        <v>0.8055275890005846</v>
       </c>
       <c r="F14" t="n">
         <v>1190</v>
       </c>
       <c r="G14" t="n">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="H14" t="n">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6604352807499716</v>
+        <v>0.7952167237581446</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7842595788424138</v>
+        <v>0.8272631985446556</v>
       </c>
       <c r="F16" t="n">
         <v>175</v>
       </c>
       <c r="G16" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H16" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7854323281529174</v>
+        <v>0.8001788928452563</v>
       </c>
       <c r="F17" t="n">
         <v>1190</v>
       </c>
       <c r="G17" t="n">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="H17" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7624903898465292</v>
+        <v>0.8519406151774409</v>
       </c>
       <c r="F18" t="n">
         <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7805154539605128</v>
+        <v>0.8181961834032987</v>
       </c>
       <c r="F19" t="n">
         <v>175</v>
       </c>
       <c r="G19" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H19" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
